--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="576">
   <si>
     <t>Property</t>
   </si>
@@ -285,7 +285,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -548,16 +548,14 @@
   </si>
   <si>
     <t>An identifier for this patient.
-この患者の識別子。</t>
+この患者の識別子。【詳細参照】</t>
   </si>
   <si>
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
 Patient.identifier.system には、
 　urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号
 を使用する。
-医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関番号（都道府県2桁、保険点数表コード1桁、保険医療機関番号７桁を連結したもの）または、特定健診・特定保健指導機関の医療機関番号10桁の先頭に１をつけた11桁とする。
-保険点数表コード1桁は医科は１，歯科は３である。
-医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとして、その先頭に１をつけた11桁とする。
+医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-patient.html#医療機関コード)を参照すること。
 例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
 なお、urn:oid:1.2.392.100495.20.3.51　の部分は、厚生労働省 電子処方箋CDA 記述仕様第1版（平成30年7月）付表2 OID一覧において患者番号として割り当てられたOIDのURL型である。
 地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。</t>
@@ -580,6 +578,10 @@
   </si>
   <si>
     <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -854,8 +856,7 @@
 ・ミドルネームがある場合は、given に指定する（givenは繰り返し可能）
 ・姓名に分割できない場合は、HumanName.text にフルネームを指定する。
 ・各名前パートとtext は、両方存在してもよい。
-・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。
-・漢字、カナの指定がない場合やローマ字名の場合などはデフォルトスライスが適用される。</t>
+・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.
@@ -4030,13 +4031,13 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4087,7 +4088,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -4102,7 +4103,7 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -4119,7 +4120,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4145,10 +4146,10 @@
         <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>159</v>
@@ -4192,7 +4193,7 @@
         <v>135</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>80</v>
@@ -4201,7 +4202,7 @@
         <v>136</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4216,7 +4217,7 @@
         <v>138</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -4233,7 +4234,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4259,16 +4260,16 @@
         <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -4293,13 +4294,13 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>80</v>
@@ -4317,7 +4318,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4332,7 +4333,7 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4349,7 +4350,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4372,19 +4373,19 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4409,13 +4410,13 @@
         <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>80</v>
@@ -4433,7 +4434,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4448,7 +4449,7 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4457,7 +4458,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4465,7 +4466,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4491,16 +4492,16 @@
         <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4513,7 +4514,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>80</v>
@@ -4549,7 +4550,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4564,7 +4565,7 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4573,7 +4574,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4581,7 +4582,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4604,16 +4605,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4627,7 +4628,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>80</v>
@@ -4663,7 +4664,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4678,7 +4679,7 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4687,7 +4688,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4695,7 +4696,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4718,16 +4719,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4777,7 +4778,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4792,7 +4793,7 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4801,7 +4802,7 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4809,7 +4810,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4832,16 +4833,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4891,7 +4892,7 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4906,7 +4907,7 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4915,7 +4916,7 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4923,7 +4924,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4946,70 +4947,70 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5024,13 +5025,13 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -5041,7 +5042,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5064,19 +5065,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -5125,7 +5126,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5140,7 +5141,7 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -5149,7 +5150,7 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -5157,7 +5158,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5180,19 +5181,19 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -5241,7 +5242,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5256,16 +5257,16 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5273,7 +5274,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5296,13 +5297,13 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5353,7 +5354,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5368,7 +5369,7 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -5385,7 +5386,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5411,10 +5412,10 @@
         <v>132</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -5458,7 +5459,7 @@
         <v>135</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>80</v>
@@ -5467,7 +5468,7 @@
         <v>136</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5482,7 +5483,7 @@
         <v>138</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -5499,7 +5500,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5525,13 +5526,13 @@
         <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5557,13 +5558,13 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>80</v>
@@ -5581,7 +5582,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5590,13 +5591,13 @@
         <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5605,7 +5606,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5613,7 +5614,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5636,19 +5637,19 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5697,7 +5698,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5712,7 +5713,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5721,7 +5722,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5729,7 +5730,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5755,16 +5756,16 @@
         <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5789,13 +5790,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5813,7 +5814,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5828,7 +5829,7 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5837,7 +5838,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5845,7 +5846,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5868,16 +5869,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5927,7 +5928,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5942,7 +5943,7 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -5951,7 +5952,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5959,7 +5960,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5982,16 +5983,16 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6041,7 +6042,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6056,7 +6057,7 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -6073,7 +6074,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6099,16 +6100,16 @@
         <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -6133,13 +6134,13 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6157,7 +6158,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6172,16 +6173,16 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6189,7 +6190,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6212,19 +6213,19 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6273,7 +6274,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6288,24 +6289,24 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6328,19 +6329,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6389,7 +6390,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6404,16 +6405,16 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6421,7 +6422,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6444,19 +6445,19 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6505,7 +6506,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6520,16 +6521,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6537,7 +6538,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6560,13 +6561,13 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6617,7 +6618,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6632,7 +6633,7 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6649,7 +6650,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6675,10 +6676,10 @@
         <v>132</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>159</v>
@@ -6722,7 +6723,7 @@
         <v>135</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>80</v>
@@ -6731,7 +6732,7 @@
         <v>136</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6746,7 +6747,7 @@
         <v>138</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6763,7 +6764,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6789,16 +6790,16 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6811,7 +6812,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6823,13 +6824,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6847,7 +6848,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6862,7 +6863,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6871,7 +6872,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6879,7 +6880,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6905,13 +6906,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6925,7 +6926,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6937,13 +6938,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6961,7 +6962,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6976,7 +6977,7 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6985,7 +6986,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6993,7 +6994,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7016,19 +7017,19 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -7041,7 +7042,7 @@
         <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>80</v>
@@ -7077,7 +7078,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -7092,7 +7093,7 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7101,7 +7102,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7109,7 +7110,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7132,16 +7133,16 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7155,7 +7156,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -7191,7 +7192,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7206,7 +7207,7 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7215,7 +7216,7 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7223,11 +7224,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7246,16 +7247,16 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7269,7 +7270,7 @@
         <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>80</v>
@@ -7305,7 +7306,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7320,7 +7321,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7329,7 +7330,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7337,11 +7338,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7360,16 +7361,16 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7383,7 +7384,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7419,7 +7420,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7434,7 +7435,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7443,7 +7444,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7451,11 +7452,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7474,16 +7475,16 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7533,7 +7534,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7548,7 +7549,7 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7557,7 +7558,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7565,11 +7566,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7588,16 +7589,16 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7611,7 +7612,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7647,7 +7648,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7662,7 +7663,7 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7671,7 +7672,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7679,7 +7680,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7702,16 +7703,16 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7761,7 +7762,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7776,7 +7777,7 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7785,7 +7786,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7793,7 +7794,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7816,19 +7817,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7841,7 +7842,7 @@
         <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>80</v>
@@ -7877,7 +7878,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7892,7 +7893,7 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7901,7 +7902,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7909,7 +7910,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7932,19 +7933,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7969,13 +7970,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7993,7 +7994,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8008,16 +8009,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8025,7 +8026,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8048,19 +8049,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8109,7 +8110,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8124,16 +8125,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8141,7 +8142,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8164,19 +8165,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -8225,7 +8226,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8240,16 +8241,16 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8257,7 +8258,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8280,19 +8281,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8341,7 +8342,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8353,13 +8354,13 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8373,7 +8374,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8396,13 +8397,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8453,7 +8454,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8468,7 +8469,7 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8485,7 +8486,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8511,10 +8512,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>159</v>
@@ -8567,7 +8568,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8582,7 +8583,7 @@
         <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8599,11 +8600,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8625,10 +8626,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>159</v>
@@ -8683,7 +8684,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8715,7 +8716,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8738,19 +8739,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8775,13 +8776,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8799,7 +8800,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8814,16 +8815,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8831,7 +8832,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8854,17 +8855,17 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8913,7 +8914,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8928,16 +8929,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8945,7 +8946,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8968,19 +8969,19 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9029,7 +9030,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9044,16 +9045,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9061,7 +9062,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9084,17 +9085,17 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9143,7 +9144,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9158,16 +9159,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9175,7 +9176,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9201,14 +9202,14 @@
         <v>107</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9233,13 +9234,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9257,7 +9258,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9272,16 +9273,16 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9289,7 +9290,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9312,19 +9313,19 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9373,7 +9374,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9382,22 +9383,22 @@
         <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9405,7 +9406,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9428,13 +9429,13 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9485,7 +9486,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9500,10 +9501,10 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9517,7 +9518,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9540,19 +9541,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9601,7 +9602,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9616,10 +9617,10 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9633,7 +9634,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9656,13 +9657,13 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9713,7 +9714,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9728,7 +9729,7 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -9745,7 +9746,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9771,10 +9772,10 @@
         <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>159</v>
@@ -9827,7 +9828,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9842,7 +9843,7 @@
         <v>138</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
@@ -9859,11 +9860,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9885,10 +9886,10 @@
         <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>159</v>
@@ -9943,7 +9944,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9975,7 +9976,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9998,19 +9999,19 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -10059,7 +10060,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>87</v>
@@ -10074,16 +10075,16 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10091,7 +10092,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10114,19 +10115,19 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10175,7 +10176,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10190,16 +10191,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10207,11 +10208,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10230,16 +10231,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10289,7 +10290,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10304,16 +10305,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10321,7 +10322,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10344,19 +10345,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10405,7 +10406,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10420,10 +10421,10 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10437,7 +10438,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10460,19 +10461,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10521,7 +10522,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10536,10 +10537,10 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10553,7 +10554,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10576,13 +10577,13 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10633,7 +10634,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10648,7 +10649,7 @@
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10665,7 +10666,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10691,10 +10692,10 @@
         <v>132</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>159</v>
@@ -10747,7 +10748,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10762,7 +10763,7 @@
         <v>138</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -10779,11 +10780,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10805,10 +10806,10 @@
         <v>132</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>159</v>
@@ -10863,7 +10864,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10895,7 +10896,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10918,16 +10919,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10977,7 +10978,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>87</v>
@@ -10995,13 +10996,13 @@
         <v>168</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11009,7 +11010,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11035,13 +11036,13 @@
         <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11067,13 +11068,13 @@
         <v>80</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
@@ -11091,7 +11092,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>87</v>
@@ -11106,10 +11107,10 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
